--- a/data/case1/5/Qlm2_2.xlsx
+++ b/data/case1/5/Qlm2_2.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.16709883557802385</v>
+        <v>-0.30188945895206132</v>
       </c>
       <c r="B1" s="0">
-        <v>0.16677224640167765</v>
+        <v>0.30096135179041994</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.14466955994608277</v>
+        <v>-0.17336280217121036</v>
       </c>
       <c r="B2" s="0">
-        <v>0.14337950104985886</v>
+        <v>0.17177231031311901</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.069806037805781429</v>
+        <v>-0.12205368009854922</v>
       </c>
       <c r="B3" s="0">
-        <v>0.069619014956446179</v>
+        <v>0.12157007454450053</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.061619015062879257</v>
+        <v>-0.11357007462281388</v>
       </c>
       <c r="B4" s="0">
-        <v>0.061466710653947487</v>
+        <v>0.11313637403569388</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.058466710709567771</v>
+        <v>-0.11013637408313404</v>
       </c>
       <c r="B5" s="0">
-        <v>0.057970925725690847</v>
+        <v>0.10866300450737754</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.035083537669837739</v>
+        <v>-0.0093780570885204639</v>
       </c>
       <c r="B6" s="0">
-        <v>0.034817360687332766</v>
+        <v>0.0093163740029726938</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.024817360825298618</v>
+        <v>0.0006836258839375553</v>
       </c>
       <c r="B7" s="0">
-        <v>0.024764953264857503</v>
+        <v>-0.00068805772522395614</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.014764953405687287</v>
+        <v>0.01068805761231495</v>
       </c>
       <c r="B8" s="0">
-        <v>0.014701845926935242</v>
+        <v>-0.010693808263849025</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.012701845982192594</v>
+        <v>0.012693808210830326</v>
       </c>
       <c r="B9" s="0">
-        <v>0.012659050419812079</v>
+        <v>-0.012705212609569916</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.010659050476167664</v>
+        <v>0.014705212558515868</v>
       </c>
       <c r="B10" s="0">
-        <v>0.010659207808062732</v>
+        <v>-0.014705148636787513</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0076592078752817372</v>
+        <v>-0.024390409828590087</v>
       </c>
       <c r="B11" s="0">
-        <v>0.00765807860472556</v>
+        <v>0.024364320594403743</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0041580786776487244</v>
+        <v>-0.020864320657016933</v>
       </c>
       <c r="B12" s="0">
-        <v>0.00414880483243385</v>
+        <v>0.02067001349584574</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.00064880490503238519</v>
+        <v>-0.017170013562787467</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0006482191299204132</v>
+        <v>0.01708172581470091</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0073517807493432841</v>
+        <v>-0.0090817259155135943</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0073549385408000489</v>
+        <v>0.0090530555355403663</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0083549384972201324</v>
+        <v>-0.0080530555860258701</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0083638170256117306</v>
+        <v>0.0080345587504879745</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.032034963215259893</v>
+        <v>-0.0060345588089387725</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.032500578763242416</v>
+        <v>0.0060032980499524768</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040030061259175298</v>
+        <v>-0.004003298109339859</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999348703241</v>
+        <v>0.0039999999257585017</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016102686522490472</v>
+        <v>-0.067245767723431271</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016090840775394355</v>
+        <v>0.067060876476677578</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012090840820705662</v>
+        <v>-0.012091669813892647</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012015921434313626</v>
+        <v>0.012016349921941671</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080159214831425629</v>
+        <v>-0.0080163499573799868</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080055989680669626</v>
+        <v>0.0080055709555022503</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040055990174225897</v>
+        <v>-0.0040055709913398019</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999501505457</v>
+        <v>0.0039999999639039885</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045714010810806727</v>
+        <v>-0.045718630257990611</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045500586638567597</v>
+        <v>0.045503515755328294</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040500586712477471</v>
+        <v>-0.040503515808726576</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099144883841475</v>
+        <v>0.040099840363637895</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099145128101625</v>
+        <v>-0.020099840530540369</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999752151609</v>
+        <v>0.019999999830710991</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.02088738810730284</v>
+        <v>-0.097284947473767147</v>
       </c>
       <c r="B25" s="0">
-        <v>0.020887469457784746</v>
+        <v>0.097159046042419206</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.018387469514832944</v>
+        <v>-0.094659046102949063</v>
       </c>
       <c r="B26" s="0">
-        <v>0.018386689780971466</v>
+        <v>0.094496369497225174</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.060936685062880969</v>
+        <v>-0.091996369561179847</v>
       </c>
       <c r="B27" s="0">
-        <v>0.060504733513550235</v>
+        <v>0.091029462761073709</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.058504733578580215</v>
+        <v>-0.089029462837141971</v>
       </c>
       <c r="B28" s="0">
-        <v>0.058222583870127131</v>
+        <v>0.088367550746105472</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.051222583998661086</v>
+        <v>-0.08136755086967451</v>
       </c>
       <c r="B29" s="0">
-        <v>0.051151745619548272</v>
+        <v>0.08117588811132137</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0088482536715313032</v>
+        <v>-0.021175888626699724</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.0088759719450246521</v>
+        <v>0.021023318686021142</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014021013165100626</v>
+        <v>-0.014023318819070596</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000831610264441</v>
+        <v>0.014000919784969312</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040008317743485122</v>
+        <v>-0.0040009199404185125</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999010422727</v>
+        <v>0.0039999998880997367</v>
       </c>
     </row>
   </sheetData>
